--- a/resultado_situacoes.xlsx
+++ b/resultado_situacoes.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\desenvolvimento\projetos\EstudoBiopsiaAnatomo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -36,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,13 +42,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,41 +81,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -169,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,10 +173,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,49 +382,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>630</v>
       </c>
-      <c r="C2" s="4">
-        <v>0.79519349708429055</v>
+      <c r="C2">
+        <v>0.3814344356586707</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>58</v>
       </c>
-      <c r="C3" s="4">
-        <v>7.3208290207760082E-2</v>
+      <c r="C3">
+        <v>0.03511618614000461</v>
       </c>
     </row>
   </sheetData>
